--- a/zssessentials/src/main/webapp/WEB-INF/books/book2.xlsx
+++ b/zssessentials/src/main/webapp/WEB-INF/books/book2.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="330" windowWidth="16815" windowHeight="8580"/>
+    <workbookView xWindow="720" yWindow="330" windowWidth="16815" windowHeight="8580" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="SheetX" sheetId="1" r:id="rId1"/>
+    <sheet name="SheetY" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
@@ -388,7 +388,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="C1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
@@ -439,8 +439,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="D1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>

--- a/zssessentials/src/main/webapp/WEB-INF/books/book2.xlsx
+++ b/zssessentials/src/main/webapp/WEB-INF/books/book2.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="330" windowWidth="16815" windowHeight="8580" activeTab="1"/>
+    <workbookView xWindow="720" yWindow="330" windowWidth="16815" windowHeight="8580" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="SheetX" sheetId="1" r:id="rId1"/>
     <sheet name="SheetY" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="SheetZ" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Dennis</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -39,6 +39,18 @@
   </si>
   <si>
     <t>yyy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SheetY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SheetX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SheetZ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -386,10 +398,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="C1:D4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -397,7 +409,10 @@
     <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:4">
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
@@ -405,7 +420,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="3:4">
+    <row r="2" spans="1:4">
       <c r="C2" t="s">
         <v>0</v>
       </c>
@@ -413,7 +428,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="3:4">
+    <row r="3" spans="1:4">
       <c r="C3">
         <v>38</v>
       </c>
@@ -421,7 +436,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="3:4">
+    <row r="4" spans="1:4">
       <c r="C4" s="1">
         <v>27439</v>
       </c>
@@ -437,30 +452,33 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="D1:D4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <sheetData>
-    <row r="1" spans="4:4">
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
       <c r="D1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="4:4">
+    <row r="2" spans="1:4">
       <c r="D2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="4:4">
+    <row r="3" spans="1:4">
       <c r="D3">
         <v>99</v>
       </c>
     </row>
-    <row r="4" spans="4:4">
+    <row r="4" spans="1:4">
       <c r="D4" s="1">
         <v>41399</v>
       </c>
@@ -475,10 +493,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/zssessentials/src/main/webapp/WEB-INF/books/book2.xlsx
+++ b/zssessentials/src/main/webapp/WEB-INF/books/book2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="330" windowWidth="16815" windowHeight="8580" activeTab="2"/>
+    <workbookView xWindow="720" yWindow="330" windowWidth="16815" windowHeight="8580"/>
   </bookViews>
   <sheets>
     <sheet name="SheetX" sheetId="1" r:id="rId1"/>
@@ -400,13 +400,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -428,7 +429,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" ht="29.25" customHeight="1">
       <c r="C3">
         <v>38</v>
       </c>
@@ -436,7 +437,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" ht="29.25" customHeight="1">
       <c r="C4" s="1">
         <v>27439</v>
       </c>
@@ -493,7 +494,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
